--- a/Груминг/Акция ГРУМИНГ.xlsx
+++ b/Груминг/Акция ГРУМИНГ.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9927BA0-7996-4C69-9A91-8BFB633218ED}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27F37BE-8666-4E6A-918B-66CED75C2904}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
-  <si>
-    <t>Акция на груминг!!!</t>
-  </si>
-  <si>
-    <t>"Подготовь собачку к осени."</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t xml:space="preserve"> - триминг ушей</t>
   </si>
@@ -71,6 +65,18 @@
   </si>
   <si>
     <t>Полный комплекс котики</t>
+  </si>
+  <si>
+    <t>Груминг!!!</t>
+  </si>
+  <si>
+    <t>073-031-08-77</t>
+  </si>
+  <si>
+    <t>094-924-97-06</t>
+  </si>
+  <si>
+    <t>тел.:(044)-360-27-06</t>
   </si>
 </sst>
 </file>
@@ -83,15 +89,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="36"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -132,7 +129,16 @@
     </font>
     <font>
       <b/>
-      <sz val="30"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -140,12 +146,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -180,22 +192,22 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -478,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,69 +503,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="92.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-    </row>
-    <row r="3" spans="1:14" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-    </row>
-    <row r="5" spans="1:14" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="2" t="s">
-        <v>14</v>
+      <c r="A1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+    </row>
+    <row r="4" spans="1:14" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C5" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C7" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C8" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C9" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C10" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
@@ -562,60 +561,60 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C13" s="1"/>
-      <c r="D13" s="1" t="s">
+    <row r="14" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C14" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
     <row r="15" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C15" s="1"/>
-      <c r="D15" s="1" t="s">
+      <c r="C15" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C18" s="1" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C16" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C19" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C20" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C21" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C22" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C23" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
@@ -624,23 +623,33 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C25" s="1" t="s">
-        <v>8</v>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C26" s="1"/>
-      <c r="D26" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C27" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
+      <c r="C26" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+    </row>
+    <row r="28" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -652,31 +661,70 @@
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
     </row>
-    <row r="29" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+    <row r="29" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C29" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="E32" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="6"/>
+    </row>
+    <row r="33" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="E33" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-    </row>
-    <row r="30" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C30" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="6"/>
+    </row>
+    <row r="34" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="E34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="6"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A29:K29"/>
+    <mergeCell ref="A28:K28"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
